--- a/Experiments/230216_mod2/combined_sp_updated.xlsx
+++ b/Experiments/230216_mod2/combined_sp_updated.xlsx
@@ -755,7 +755,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>60.0,60.0,</t>
+          <t>37.5,60.0,</t>
         </is>
       </c>
     </row>
@@ -1474,7 +1474,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>1504.75,2000.0,</t>
+          <t>1614.75,2000.0,</t>
         </is>
       </c>
     </row>
@@ -1494,7 +1494,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>J11</t>
+          <t>J11,K11</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -1502,12 +1502,12 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>55,55</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>60.0,</t>
+          <t>20.0,52.5,</t>
         </is>
       </c>
     </row>
@@ -1527,7 +1527,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>J12</t>
+          <t>J12,K12</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -1535,12 +1535,12 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>55,55</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>60.0,</t>
+          <t>20.0,40.0,</t>
         </is>
       </c>
     </row>
